--- a/biology/Botanique/Liste_de_plantes_tinctoriales/Liste_de_plantes_tinctoriales.xlsx
+++ b/biology/Botanique/Liste_de_plantes_tinctoriales/Liste_de_plantes_tinctoriales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,13 +518,15 @@
           <t>Teinte bleu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Baptisia tinctoria (Baptisia tinctoria L.)
-Maurelle ou tournesol à drapeaux (Chrozophora tinctoria (L.) A.Juss.)[1]
+Maurelle ou tournesol à drapeaux (Chrozophora tinctoria (L.) A.Juss.)
 Indigotier (Indigofera tinctoria L.)
 Laurier des teinturiers (Wrightia tinctoria (Roxb.) R.Br.)
-Liane-indigo, gara, Philenoptera cyanescens (= Lonchocarpus cyanescens) et L. laxiflorus[2]
+Liane-indigo, gara, Philenoptera cyanescens (= Lonchocarpus cyanescens) et L. laxiflorus
 Marsdenia tinctoria (Asclepiadaceae)
 Pastel des teinturiers ou guède (Isatis tinctoria L.)
 Renouée des teinturiers, Persicaria tinctoria Ait. (= Polygonum tinctorium)
@@ -544,7 +558,9 @@
           <t>Teinte brun à noir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acacia à cachou (Acacia catechu (L.f.) Willd.)
 Campêche (Haematoxylum campechianum L.)
@@ -578,7 +594,9 @@
           <t>Teinte jaune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Camomille des teinturiers (Anthemis tinctoria L.)
 Chanvre bâtard (Galeopsis tetrahit L.)
@@ -589,7 +607,7 @@
 Reseda luteola ou gaude ou réséda des teinturiers (Reseda luteola L.)
 Safran (Crocus sativus L.)
 Sarrette des teinturiers (Serratula tinctoria L.)
-Tanaisie commune (Tanacetum vulgare L.) [3]
+Tanaisie commune (Tanacetum vulgare L.) 
 Tussilage (Tussilago farfara L.)</t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Teinte orange</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cryptocarya rubra (Cryptocarya alba (Molina) Looser)
 Curcuma (Curcuma longa)</t>
@@ -649,7 +669,9 @@
           <t>Teinte rouge à brun</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Aspérule des teinturiers (Asperula tinctoria L.)
 Aspérule odorante (Galium odoratum (L.) Scop.)
@@ -694,7 +716,9 @@
           <t>Teinte violet pourpre magenta</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Orchilla (Roccella canariensis Darb.)
 Orseille ou pourpre française (Roccella tinctoria DC.)</t>
